--- a/Logs/3/outSVM_SVCRGB.xlsx
+++ b/Logs/3/outSVM_SVCRGB.xlsx
@@ -95,12 +95,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -109,19 +124,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +443,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,394 +485,394 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>0.89</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
         <v>0.94</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>0.71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.99</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.43</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>0.83</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.9</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.36</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>0.81</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0.8</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>0.88</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.88</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.94</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.73</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>0.95</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="H6" s="5">
         <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.69</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0.94</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="F7" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="H7" s="3">
         <v>0.81</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.53</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>0.88</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.94</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>0.69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.53</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>0.88</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.94</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>0.69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>0.99</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>0.75</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>0.96</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>0.9</v>
       </c>
-      <c r="G10" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="H10" s="5">
         <v>0.82</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>0.63</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>0.92</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.96</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>0.76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.6</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>0.93</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0.8</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>0.95</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>0.69</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
         <v>0.76</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>0.96</v>
       </c>
-      <c r="F13" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="G13" s="5">
         <v>0.98</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>0.85</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>0.99</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>0.35</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>0.77</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0.93</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>0.87</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.4</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>0.8</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
         <v>0.89</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D16" s="3">
         <v>0.38</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>0.82</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0.8</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>0.89</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>0.51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>0.99</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>0.47</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>0.85</v>
       </c>
-      <c r="F17" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="G17" s="3">
         <v>0.92</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>0.63</v>
       </c>
     </row>
